--- a/NM5.xlsx
+++ b/NM5.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615EBDED-A9FB-409A-8480-2C2E47794323}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,6 +370,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -404,6 +422,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -579,16 +614,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="12"/>
       <c r="C1" s="8">
         <v>0</v>
@@ -618,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
@@ -658,7 +693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -699,7 +734,7 @@
         <v>3.1622776601683784E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -717,7 +752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>3</v>
       </c>
